--- a/LunarBase.xlsx
+++ b/LunarBase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/sivaastro_arizona_edu/Documents/PhD/Siva/Project/Lunar base/Simulation/Final_Simiulation_3.0/Final_Simiulation_3.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Visitor\OneDrive - University of Arizona\PhD\Siva\Project\Lunar base\Simulation\Lunar Base Software 23-24\GitHub\Lunar_Base_Software_Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{58DCB39B-3897-4E86-943F-F676CB7964DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A0AA919-ADB5-4D9F-A49F-8D349F1AB74A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA26C3F-366F-4A8B-9525-C913911A6526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="833" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="833" firstSheet="11" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superadobes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,13 @@
     <sheet name="CommunicationCenter" sheetId="8" r:id="rId9"/>
     <sheet name="LoadingDocks" sheetId="10" r:id="rId10"/>
     <sheet name="LandingPads" sheetId="11" r:id="rId11"/>
-    <sheet name="LandingPadRoads" sheetId="12" r:id="rId12"/>
+    <sheet name="ChargingStations" sheetId="14" r:id="rId12"/>
+    <sheet name="LandingPadRoads" sheetId="12" r:id="rId13"/>
+    <sheet name="FireKits" sheetId="15" r:id="rId14"/>
+    <sheet name="ExternalRobots" sheetId="16" r:id="rId15"/>
+    <sheet name="Sandbags" sheetId="20" r:id="rId16"/>
+    <sheet name="ExternalRobotParkingLocation" sheetId="17" r:id="rId17"/>
+    <sheet name="ExternalRobotChargingStations" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,14 +46,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mg+SgRM+vk7duOS/yg7acv4lLGqnQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId19" roundtripDataSignature="AMtx7mg+SgRM+vk7duOS/yg7acv4lLGqnQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="175">
   <si>
     <t>S No</t>
   </si>
@@ -377,17 +383,219 @@
   </si>
   <si>
     <t>LPR11</t>
+  </si>
+  <si>
+    <t>Park1</t>
+  </si>
+  <si>
+    <t>Park2</t>
+  </si>
+  <si>
+    <t>Park3</t>
+  </si>
+  <si>
+    <t>Park4</t>
+  </si>
+  <si>
+    <t>Park5</t>
+  </si>
+  <si>
+    <t>Park6</t>
+  </si>
+  <si>
+    <t>FK1</t>
+  </si>
+  <si>
+    <t>FK2</t>
+  </si>
+  <si>
+    <t>FK3</t>
+  </si>
+  <si>
+    <t>FK4</t>
+  </si>
+  <si>
+    <t>FK5</t>
+  </si>
+  <si>
+    <t>FK6</t>
+  </si>
+  <si>
+    <t>FK7</t>
+  </si>
+  <si>
+    <t>FK8</t>
+  </si>
+  <si>
+    <t>FK9</t>
+  </si>
+  <si>
+    <t>FK10</t>
+  </si>
+  <si>
+    <t>FK11</t>
+  </si>
+  <si>
+    <t>FK12</t>
+  </si>
+  <si>
+    <t>ERPL1</t>
+  </si>
+  <si>
+    <t>ERCS1</t>
+  </si>
+  <si>
+    <t>ERCS2</t>
+  </si>
+  <si>
+    <t>ERCS3</t>
+  </si>
+  <si>
+    <t>ERCS4</t>
+  </si>
+  <si>
+    <t>ER1</t>
+  </si>
+  <si>
+    <t>ER2</t>
+  </si>
+  <si>
+    <t>ER3</t>
+  </si>
+  <si>
+    <t>ER4</t>
+  </si>
+  <si>
+    <t>ER5</t>
+  </si>
+  <si>
+    <t>ER6</t>
+  </si>
+  <si>
+    <t>ER7</t>
+  </si>
+  <si>
+    <t>ER8</t>
+  </si>
+  <si>
+    <t>ER9</t>
+  </si>
+  <si>
+    <t>ER10</t>
+  </si>
+  <si>
+    <t>ER11</t>
+  </si>
+  <si>
+    <t>ER12</t>
+  </si>
+  <si>
+    <t>ER13</t>
+  </si>
+  <si>
+    <t>SB1</t>
+  </si>
+  <si>
+    <t>SB2</t>
+  </si>
+  <si>
+    <t>SB3</t>
+  </si>
+  <si>
+    <t>SB4</t>
+  </si>
+  <si>
+    <t>SB5</t>
+  </si>
+  <si>
+    <t>SB6</t>
+  </si>
+  <si>
+    <t>SB7</t>
+  </si>
+  <si>
+    <t>SB8</t>
+  </si>
+  <si>
+    <t>SB9</t>
+  </si>
+  <si>
+    <t>SB10</t>
+  </si>
+  <si>
+    <t>SB11</t>
+  </si>
+  <si>
+    <t>SB12</t>
+  </si>
+  <si>
+    <t>SB13</t>
+  </si>
+  <si>
+    <t>SB14</t>
+  </si>
+  <si>
+    <t>SB15</t>
+  </si>
+  <si>
+    <t>SB16</t>
+  </si>
+  <si>
+    <t>SB17</t>
+  </si>
+  <si>
+    <t>SB18</t>
+  </si>
+  <si>
+    <t>SB19</t>
+  </si>
+  <si>
+    <t>SB20</t>
+  </si>
+  <si>
+    <t>SB21</t>
+  </si>
+  <si>
+    <t>SB22</t>
+  </si>
+  <si>
+    <t>SB23</t>
+  </si>
+  <si>
+    <t>SB24</t>
+  </si>
+  <si>
+    <t>SB25</t>
+  </si>
+  <si>
+    <t>SB26</t>
+  </si>
+  <si>
+    <t>SB27</t>
+  </si>
+  <si>
+    <t>SB28</t>
+  </si>
+  <si>
+    <t>SB29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,6 +668,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -478,23 +693,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2245,7 +2464,7 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2402,7 +2621,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2503,17 +2722,131 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB050BA-6D2E-4A7C-B8AC-002B38E7DB94}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2">
+        <v>631.39013999999997</v>
+      </c>
+      <c r="D2">
+        <v>441.03122999999999</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3">
+        <v>631.39013999999997</v>
+      </c>
+      <c r="D3">
+        <v>430.61219999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4">
+        <v>847.39802399999996</v>
+      </c>
+      <c r="D4">
+        <v>441.03122999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5">
+        <v>847.39802399999996</v>
+      </c>
+      <c r="D5">
+        <v>430.61219999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6">
+        <v>1074.6252179999999</v>
+      </c>
+      <c r="D6">
+        <v>441.03122999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7">
+        <v>1074.6252179999999</v>
+      </c>
+      <c r="D7">
+        <v>430.61219999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A178D84D-6A68-4DC4-BA4A-E328AE2B6ED9}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,7 +3097,1323 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EE9623-B141-4F9C-A43E-AC2817C56EB0}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2">
+        <v>622.17152999999996</v>
+      </c>
+      <c r="D2">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3">
+        <v>632.1904199999999</v>
+      </c>
+      <c r="D3">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>622.17152999999996</v>
+      </c>
+      <c r="D4">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5">
+        <v>632.1904199999999</v>
+      </c>
+      <c r="D5">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>847.39802399999996</v>
+      </c>
+      <c r="D6">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7">
+        <v>847.39802399999996</v>
+      </c>
+      <c r="D7">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8">
+        <v>857.41691399999991</v>
+      </c>
+      <c r="D8">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9">
+        <v>857.41691399999991</v>
+      </c>
+      <c r="D9">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>1074.6252179999999</v>
+      </c>
+      <c r="D10">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>1074.6252179999999</v>
+      </c>
+      <c r="D11">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>1083.4436879999998</v>
+      </c>
+      <c r="D12">
+        <v>642.612528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>1083.4436879999998</v>
+      </c>
+      <c r="D13">
+        <v>221.81822460000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC7F6EE-77BA-45DF-B4C3-ADB5FD0E0337}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>380</f>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2+2</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2+2.55</f>
+        <v>382.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C14" si="0">C3+2</f>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D14" si="1">D3+5</f>
+        <v>387.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>392.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>397.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>402.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>407.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>412.55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2">
+        <f>C9+2</f>
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>417.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>422.55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>427.55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>432.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>437.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB4342A-B665-4C77-8C44-7FD458471479}">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>250</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3">
+        <f>C2+2</f>
+        <v>102</v>
+      </c>
+      <c r="D3">
+        <f>D2+2</f>
+        <v>252</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C30" si="1">C3+2</f>
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D30" si="2">D3+2</f>
+        <v>254</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" ref="A8:A17" si="3">A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" ref="A18:A30" si="4">A17+1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="E25">
+        <v>10</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB20C0D-6CBB-49DD-990D-319A189F7FFC}">
+  <dimension ref="A1:Y16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>428.1-50</f>
+        <v>378.1</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <f>856.2/2</f>
+        <v>428.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB1BB77-4164-47C9-B19B-49C636E9E8F6}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <f>865.62-50</f>
+        <v>815.62</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <f>1538.9-50</f>
+        <v>1488.9</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5">
+        <v>1488.9</v>
+      </c>
+      <c r="D5">
+        <v>815.62</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4034,7 +5683,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -4332,7 +5981,7 @@
       <c r="B20" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4341,7 +5990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -6456,7 +8105,7 @@
   <dimension ref="A1:H998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7737,7 +9386,7 @@
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -8852,7 +10501,7 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -8989,7 +10638,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
